--- a/data/output/FV2304_FV2210/UTILMD/11065.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11065.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3950" uniqueCount="293">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3971" uniqueCount="293">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -997,6 +997,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U189" totalsRowShown="0">
+  <autoFilter ref="A1:U189"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1286,7 +1316,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -9860,5 +9893,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/UTILMD/11065.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11065.xlsx
@@ -1972,7 +1972,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2510,7 +2510,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N13" s="2"/>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N16" s="2"/>
@@ -2832,7 +2832,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N20" s="2"/>
@@ -3016,7 +3016,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -3204,7 +3204,7 @@
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="2" t="s">
+      <c r="M28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -3500,7 +3500,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -3686,7 +3686,7 @@
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N38" s="2" t="s">
@@ -4046,7 +4046,7 @@
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4528,7 +4528,7 @@
         <v>275</v>
       </c>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -4718,7 +4718,7 @@
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -4906,7 +4906,7 @@
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -5042,7 +5042,7 @@
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -5188,7 +5188,7 @@
         <v>277</v>
       </c>
       <c r="L69" s="4"/>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -5378,7 +5378,7 @@
         <v>278</v>
       </c>
       <c r="L73" s="4"/>
-      <c r="M73" s="2" t="s">
+      <c r="M73" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N73" s="2" t="s">
@@ -5582,7 +5582,7 @@
         <v>279</v>
       </c>
       <c r="L77" s="4"/>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -5784,7 +5784,7 @@
         <v>280</v>
       </c>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -5976,7 +5976,7 @@
         <v>282</v>
       </c>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -6114,7 +6114,7 @@
       </c>
       <c r="K88" s="2"/>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -6264,7 +6264,7 @@
         <v>283</v>
       </c>
       <c r="L91" s="4"/>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N91" s="2" t="s">
@@ -6730,7 +6730,7 @@
         <v>286</v>
       </c>
       <c r="L100" s="4"/>
-      <c r="M100" s="2" t="s">
+      <c r="M100" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N100" s="2" t="s">
@@ -6976,7 +6976,7 @@
         <v>288</v>
       </c>
       <c r="L105" s="4"/>
-      <c r="M105" s="2" t="s">
+      <c r="M105" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N105" s="2" t="s">
@@ -7222,7 +7222,7 @@
         <v>278</v>
       </c>
       <c r="L110" s="4"/>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -7410,7 +7410,7 @@
         <v>278</v>
       </c>
       <c r="L114" s="4"/>
-      <c r="M114" s="2" t="s">
+      <c r="M114" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N114" s="2" t="s">
@@ -7598,7 +7598,7 @@
         <v>278</v>
       </c>
       <c r="L118" s="4"/>
-      <c r="M118" s="2" t="s">
+      <c r="M118" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N118" s="2" t="s">
@@ -7786,7 +7786,7 @@
         <v>278</v>
       </c>
       <c r="L122" s="4"/>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -8070,7 +8070,7 @@
         <v>289</v>
       </c>
       <c r="L128" s="4"/>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -8208,7 +8208,7 @@
       </c>
       <c r="K131" s="2"/>
       <c r="L131" s="4"/>
-      <c r="M131" s="2" t="s">
+      <c r="M131" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N131" s="2" t="s">
@@ -8358,7 +8358,7 @@
         <v>290</v>
       </c>
       <c r="L134" s="4"/>
-      <c r="M134" s="2" t="s">
+      <c r="M134" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N134" s="2" t="s">
@@ -8604,7 +8604,7 @@
         <v>291</v>
       </c>
       <c r="L139" s="4"/>
-      <c r="M139" s="2" t="s">
+      <c r="M139" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N139" s="2" t="s">
@@ -8742,7 +8742,7 @@
       </c>
       <c r="K142" s="2"/>
       <c r="L142" s="4"/>
-      <c r="M142" s="2" t="s">
+      <c r="M142" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N142" s="2" t="s">
@@ -8888,7 +8888,7 @@
       </c>
       <c r="K145" s="2"/>
       <c r="L145" s="4"/>
-      <c r="M145" s="2" t="s">
+      <c r="M145" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N145" s="2" t="s">
@@ -9036,7 +9036,7 @@
       </c>
       <c r="K148" s="2"/>
       <c r="L148" s="4"/>
-      <c r="M148" s="2" t="s">
+      <c r="M148" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N148" s="2" t="s">
@@ -9426,7 +9426,7 @@
         <v>292</v>
       </c>
       <c r="L156" s="4"/>
-      <c r="M156" s="2" t="s">
+      <c r="M156" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N156" s="2" t="s">
@@ -9564,7 +9564,7 @@
       </c>
       <c r="K159" s="2"/>
       <c r="L159" s="4"/>
-      <c r="M159" s="2" t="s">
+      <c r="M159" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N159" s="2" t="s">
@@ -9710,7 +9710,7 @@
       </c>
       <c r="K162" s="2"/>
       <c r="L162" s="4"/>
-      <c r="M162" s="2" t="s">
+      <c r="M162" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N162" s="2" t="s">
@@ -9858,7 +9858,7 @@
       </c>
       <c r="K165" s="2"/>
       <c r="L165" s="4"/>
-      <c r="M165" s="2" t="s">
+      <c r="M165" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N165" s="2" t="s">
@@ -10248,7 +10248,7 @@
         <v>293</v>
       </c>
       <c r="L173" s="4"/>
-      <c r="M173" s="2" t="s">
+      <c r="M173" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N173" s="2" t="s">
@@ -10386,7 +10386,7 @@
       </c>
       <c r="K176" s="2"/>
       <c r="L176" s="4"/>
-      <c r="M176" s="2" t="s">
+      <c r="M176" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N176" s="2" t="s">
@@ -10532,7 +10532,7 @@
       </c>
       <c r="K179" s="2"/>
       <c r="L179" s="4"/>
-      <c r="M179" s="2" t="s">
+      <c r="M179" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N179" s="2" t="s">
@@ -10680,7 +10680,7 @@
       </c>
       <c r="K182" s="2"/>
       <c r="L182" s="4"/>
-      <c r="M182" s="2" t="s">
+      <c r="M182" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N182" s="2" t="s">
@@ -10906,7 +10906,7 @@
       </c>
       <c r="K187" s="2"/>
       <c r="L187" s="4"/>
-      <c r="M187" s="2" t="s">
+      <c r="M187" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N187" s="2"/>
